--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1599708.08802237</v>
+        <v>1597820.506505968</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>266.1512514744988</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="T4" t="n">
-        <v>173.9313784350749</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>164.6242057717098</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>157.1826414337801</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>126.3298627762798</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>230.6815503270428</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>73.09822644459121</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.562624396424664</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>32.8965767413795</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.2541671901479</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>33.35146980185863</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>157.8991948197404</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>41.3986772955387</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>59.77945773664933</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>6.348656829617568</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>207.1789546388884</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>161.8175117958954</v>
       </c>
       <c r="C28" t="n">
-        <v>144.8843619582453</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>77.36988302551134</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>93.41221638965527</v>
@@ -2959,10 +2959,10 @@
         <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>42.20569823125466</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522971</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,19 +4135,19 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789545</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1978.468598880909</v>
+        <v>1196.18634261119</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>806.0470106353782</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T4" t="n">
-        <v>552.4407231609042</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U4" t="n">
-        <v>552.4407231609042</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>552.4407231609042</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>552.4407231609042</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>552.4407231609042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.4407231609042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.232431292459</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>1375.269914352047</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1017.004215745297</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>631.2159631470527</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>220.2300583574451</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,7 +4568,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>2130.832271356581</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1251.118186271549</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1251.118186271549</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>865.3299336733044</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>858.3844329241009</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>440.4206248222878</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>474.8900731662875</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113633</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.5883316929522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>471.5883316929522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>321.4716922806165</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344997</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364824</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.5883316929522</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5285,43 +5285,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1465.68740516257</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1265.767395078122</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1041.981979867628</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>752.8533410811858</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V16" t="n">
-        <v>498.168852875299</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W16" t="n">
-        <v>208.7516828383384</v>
+        <v>531.397718270632</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5504,40 +5504,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
@@ -5601,16 +5601,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>720.4504516500522</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X19" t="n">
-        <v>560.9563154684962</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.9563154684962</v>
+        <v>130.9054447954966</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>286.9470307957484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609662</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609662</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240055</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>468.5954956259882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>468.5954956259882</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,16 +6075,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.1830073829217</v>
+        <v>272.5660590645741</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550148</v>
+        <v>103.6298761366671</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655739</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655739</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="X25" t="n">
-        <v>745.8314722131613</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.8314722131613</v>
+        <v>454.2145238948137</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>688.78598135451</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119728</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.423997082767</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X28" t="n">
-        <v>870.4344461847497</v>
+        <v>481.4617027208818</v>
       </c>
       <c r="Y28" t="n">
-        <v>870.4344461847497</v>
+        <v>260.6691235773517</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>229.0333923118344</v>
       </c>
       <c r="K30" t="n">
-        <v>485.4047026089419</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L30" t="n">
-        <v>732.1698305154059</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.420029503087</v>
+        <v>439.5324299542178</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076213</v>
+        <v>326.3571123076817</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766563</v>
+        <v>232.0013381767169</v>
       </c>
       <c r="E31" t="n">
-        <v>300.760630075634</v>
+        <v>139.8491098756946</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6622,13 +6622,13 @@
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6643,10 +6643,10 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652463</v>
+        <v>730.4517433652461</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503087</v>
+        <v>565.4200295030868</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7184,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,25 +7421,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>223.155231313709</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>634.0455001582217</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>880.8106280646857</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,28 +8769,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>62.91120742583783</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>87.16935584025447</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305277</v>
+        <v>43.65987261462453</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229581</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,19 +9723,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>22.04402060665547</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>134.4977453535105</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968302119</v>
       </c>
       <c r="K30" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>20.63789864135413</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>76.43196988338491</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,10 +11300,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>85.30006332127833</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>189.0022427662463</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>73.33573620197797</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.0677756624133</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>14.45548819888927</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>67.81046056929674</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>125.8481438030891</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871787</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>142.2668161885948</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>18.53070075014872</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>18.0144683860419</v>
       </c>
       <c r="C28" t="n">
-        <v>22.3624591403825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>34.67368144455941</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.0120931631195</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>965584.8492402212</v>
+        <v>965584.8492402211</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26320,13 +26320,13 @@
         <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="F2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852503</v>
@@ -26335,7 +26335,7 @@
         <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
         <v>488186.5648143236</v>
@@ -26344,16 +26344,16 @@
         <v>492625.0619185703</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185705</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-345834.7631459085</v>
+        <v>-345834.7631459084</v>
       </c>
       <c r="C6" t="n">
-        <v>244133.116068636</v>
+        <v>244133.1160686359</v>
       </c>
       <c r="D6" t="n">
-        <v>244133.1160686358</v>
+        <v>244133.1160686359</v>
       </c>
       <c r="E6" t="n">
-        <v>-170087.0983272332</v>
+        <v>-170184.5574532055</v>
       </c>
       <c r="F6" t="n">
-        <v>355072.938149663</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="G6" t="n">
-        <v>355072.938149663</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="H6" t="n">
-        <v>355072.9381496629</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="I6" t="n">
-        <v>355072.9381496629</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="J6" t="n">
-        <v>178649.7189570699</v>
+        <v>178552.2598310978</v>
       </c>
       <c r="K6" t="n">
-        <v>307056.5208801879</v>
+        <v>307038.0271422535</v>
       </c>
       <c r="L6" t="n">
         <v>339973.6544694868</v>
       </c>
       <c r="M6" t="n">
-        <v>215515.5460365163</v>
+        <v>215515.5460365165</v>
       </c>
       <c r="N6" t="n">
-        <v>350316.5612703538</v>
+        <v>350316.5612703537</v>
       </c>
       <c r="O6" t="n">
         <v>350316.5612703536</v>
       </c>
       <c r="P6" t="n">
-        <v>306153.9559675079</v>
+        <v>306153.9559675077</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>103.5798492039702</v>
+        <v>257.3378101927851</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>203.3581181989826</v>
       </c>
       <c r="T4" t="n">
-        <v>51.10372702300936</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>249.1599642490852</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>229.0552972222735</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>20.33532920387802</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>93.24122243731435</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>23.98522015752656</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>20.33532920387805</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>213.4866460137771</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>420.3639292382673</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541609</v>
+        <v>326.0235748557327</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221117</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,19 +36209,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>355.2385940046684</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686865</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36683,16 +36683,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>222.5107781385846</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686865</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>133.1477786379279</v>
       </c>
       <c r="K30" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>462.5180961366869</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973785</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>409.6265432813979</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>127.210242276185</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>277.0152755513204</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
